--- a/biology/Zoologie/Géopélie_diamant/Géopélie_diamant.xlsx
+++ b/biology/Zoologie/Géopélie_diamant/Géopélie_diamant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9op%C3%A9lie_diamant</t>
+          <t>Géopélie_diamant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geopelia cuneata
-La Géopélie diamant (Geopelia cuneata), parfois dite colombe diamant, est une espèce d'oiseaux de la famille des colombidés originaire d'Australie. C'est la colombe la plus petite du monde[1].
+La Géopélie diamant (Geopelia cuneata), parfois dite colombe diamant, est une espèce d'oiseaux de la famille des colombidés originaire d'Australie. C'est la colombe la plus petite du monde.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9op%C3%A9lie_diamant</t>
+          <t>Géopélie_diamant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une sorte de petit pigeon de 19 à 21 cm de long pesant de 40 à 50 g.
 Différents coloris ont été obtenus par combinaison des mutations apparues pour la plupart en Afrique du Sud qui exportait beaucoup vers la Belgique et les Pays-Bas (brune répertoriée en 1964, jaune ou agaat en 1975, rouge importée en 1977). Voici les couleurs les plus courantes auxquelles il convient d'ajouter le croupion blanc (gène dominant à une seule dose[pas clair]) et la queue blanche (gène du croupion blanc à double dose) :
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9op%C3%A9lie_diamant</t>
+          <t>Géopélie_diamant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,13 +573,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Animal sauvage
-Cet oiseau vit dans le Centre, le Nord et l'Ouest de l'Australie, dans des régions semi-arides mais toujours près d'un point d'eau. Quand les conditions de vie deviennent trop difficiles dans ces régions, les colombes diamant migrent vers le Sud.
+          <t>Animal sauvage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit dans le Centre, le Nord et l'Ouest de l'Australie, dans des régions semi-arides mais toujours près d'un point d'eau. Quand les conditions de vie deviennent trop difficiles dans ces régions, les colombes diamant migrent vers le Sud.
 La colombe diamant se nourrit sur le sol de graines, accessoirement d'herbes. Elle mange des fourmis.
 Elle se reproduit après une pluie et de préférence au printemps. Elle niche alors sur le sol où elle couve deux œufs pendant 14 jours.
-Animal d'élevage
-Cette colombe miniature est appréciée comme animal de compagnie ou de concours avicoles dans le monde entier. Les variétés d'élevage sont d'ailleurs souvent considérées comme domestiques par la législation. C'est le cas en France[2].
-Les colombes diamants, facilement apeurées, doivent être maintenues en volière suffisamment grande pour voler, un seul couple à la fois. Elles supportent de rester à l'extérieur jusqu'à -10°[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Géopélie_diamant</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9op%C3%A9lie_diamant</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mode de vie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Animal d'élevage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette colombe miniature est appréciée comme animal de compagnie ou de concours avicoles dans le monde entier. Les variétés d'élevage sont d'ailleurs souvent considérées comme domestiques par la législation. C'est le cas en France.
+Les colombes diamants, facilement apeurées, doivent être maintenues en volière suffisamment grande pour voler, un seul couple à la fois. Elles supportent de rester à l'extérieur jusqu'à -10°.
 Caractéristiques[réf. souhaitée] :
 comportement social : interspécifique pacifique mais un seul couple par volière
 logement : volière intérieure ou extérieure (les deux sont pareilles) ; cage plus large que haute
